--- a/Result.xlsx
+++ b/Result.xlsx
@@ -557,10 +557,10 @@
         <v>247</v>
       </c>
       <c r="G3" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="H3" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="I3" t="n">
         <v>180</v>
@@ -605,13 +605,13 @@
         <v>245</v>
       </c>
       <c r="G4" t="n">
-        <v>580</v>
+        <v>120</v>
       </c>
       <c r="H4" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="I4" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="J4" t="n">
         <v>129.073719</v>
@@ -653,10 +653,10 @@
         <v>246</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="H5" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>180</v>
@@ -701,13 +701,13 @@
         <v>243</v>
       </c>
       <c r="G6" t="n">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I6" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="J6" t="n">
         <v>129.082678</v>
@@ -749,13 +749,13 @@
         <v>244</v>
       </c>
       <c r="G7" t="n">
-        <v>540</v>
+        <v>60</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>180</v>
-      </c>
-      <c r="I7" t="n">
-        <v>170</v>
       </c>
       <c r="J7" t="n">
         <v>129.082678</v>
@@ -797,10 +797,10 @@
         <v>241</v>
       </c>
       <c r="G8" t="n">
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="H8" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>170</v>
@@ -845,10 +845,10 @@
         <v>242</v>
       </c>
       <c r="G9" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="H9" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="I9" t="n">
         <v>170</v>
@@ -893,10 +893,10 @@
         <v>240</v>
       </c>
       <c r="G10" t="n">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I10" t="n">
         <v>170</v>
@@ -941,10 +941,10 @@
         <v>239</v>
       </c>
       <c r="G11" t="n">
+        <v>360</v>
+      </c>
+      <c r="H11" t="n">
         <v>180</v>
-      </c>
-      <c r="H11" t="n">
-        <v>60</v>
       </c>
       <c r="I11" t="n">
         <v>170</v>
@@ -989,10 +989,10 @@
         <v>237</v>
       </c>
       <c r="G12" t="n">
-        <v>360</v>
+        <v>420</v>
       </c>
       <c r="H12" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I12" t="n">
         <v>170</v>
@@ -1037,10 +1037,10 @@
         <v>238</v>
       </c>
       <c r="G13" t="n">
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I13" t="n">
         <v>170</v>
@@ -1088,7 +1088,7 @@
         <v>340</v>
       </c>
       <c r="H14" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>170</v>
@@ -1133,10 +1133,10 @@
         <v>234</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H15" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="I15" t="n">
         <v>170</v>
@@ -1181,10 +1181,10 @@
         <v>235</v>
       </c>
       <c r="G16" t="n">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I16" t="n">
         <v>170</v>
@@ -1229,7 +1229,7 @@
         <v>232</v>
       </c>
       <c r="G17" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="H17" t="n">
         <v>60</v>
@@ -1277,13 +1277,13 @@
         <v>233</v>
       </c>
       <c r="G18" t="n">
-        <v>580</v>
+        <v>40</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="I18" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="J18" t="n">
         <v>129.117467</v>
@@ -1325,10 +1325,10 @@
         <v>231</v>
       </c>
       <c r="G19" t="n">
-        <v>500</v>
+        <v>320</v>
       </c>
       <c r="H19" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="I19" t="n">
         <v>160</v>
@@ -1373,10 +1373,10 @@
         <v>230</v>
       </c>
       <c r="G20" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I20" t="n">
         <v>170</v>
@@ -1421,13 +1421,13 @@
         <v>229</v>
       </c>
       <c r="G21" t="n">
-        <v>340</v>
+        <v>580</v>
       </c>
       <c r="H21" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="J21" t="n">
         <v>129.125001</v>
@@ -1469,10 +1469,10 @@
         <v>228</v>
       </c>
       <c r="G22" t="n">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="H22" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="I22" t="n">
         <v>170</v>
@@ -1517,10 +1517,10 @@
         <v>226</v>
       </c>
       <c r="G23" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="I23" t="n">
         <v>170</v>
@@ -1565,13 +1565,13 @@
         <v>227</v>
       </c>
       <c r="G24" t="n">
-        <v>260</v>
+        <v>540</v>
       </c>
       <c r="H24" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="J24" t="n">
         <v>129.128947</v>
@@ -1613,10 +1613,10 @@
         <v>224</v>
       </c>
       <c r="G25" t="n">
-        <v>560</v>
+        <v>200</v>
       </c>
       <c r="H25" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="I25" t="n">
         <v>150</v>
@@ -1661,13 +1661,13 @@
         <v>225</v>
       </c>
       <c r="G26" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="H26" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="J26" t="n">
         <v>129.131572</v>
@@ -1709,10 +1709,10 @@
         <v>223</v>
       </c>
       <c r="G27" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I27" t="n">
         <v>150</v>
@@ -1757,10 +1757,10 @@
         <v>222</v>
       </c>
       <c r="G28" t="n">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="H28" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>170</v>
@@ -1805,10 +1805,10 @@
         <v>221</v>
       </c>
       <c r="G29" t="n">
+        <v>240</v>
+      </c>
+      <c r="H29" t="n">
         <v>160</v>
-      </c>
-      <c r="H29" t="n">
-        <v>100</v>
       </c>
       <c r="I29" t="n">
         <v>170</v>
@@ -1853,13 +1853,13 @@
         <v>220</v>
       </c>
       <c r="G30" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="H30" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="I30" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="J30" t="n">
         <v>129.114558</v>
@@ -1901,7 +1901,7 @@
         <v>218</v>
       </c>
       <c r="G31" t="n">
-        <v>420</v>
+        <v>500</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1955,7 +1955,7 @@
         <v>180</v>
       </c>
       <c r="I32" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="J32" t="n">
         <v>129.115184</v>
@@ -1997,13 +1997,13 @@
         <v>216</v>
       </c>
       <c r="G33" t="n">
-        <v>380</v>
+        <v>440</v>
       </c>
       <c r="H33" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="J33" t="n">
         <v>129.116566</v>
@@ -2045,10 +2045,10 @@
         <v>217</v>
       </c>
       <c r="G34" t="n">
-        <v>380</v>
+        <v>560</v>
       </c>
       <c r="H34" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="I34" t="n">
         <v>160</v>
@@ -2093,13 +2093,13 @@
         <v>215</v>
       </c>
       <c r="G35" t="n">
-        <v>520</v>
+        <v>260</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I35" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="J35" t="n">
         <v>129.110759</v>
@@ -2141,13 +2141,13 @@
         <v>213</v>
       </c>
       <c r="G36" t="n">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>180</v>
       </c>
       <c r="I36" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="J36" t="n">
         <v>129.114332</v>
@@ -2189,10 +2189,10 @@
         <v>214</v>
       </c>
       <c r="G37" t="n">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="H37" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I37" t="n">
         <v>150</v>
@@ -2237,10 +2237,10 @@
         <v>211</v>
       </c>
       <c r="G38" t="n">
+        <v>40</v>
+      </c>
+      <c r="H38" t="n">
         <v>120</v>
-      </c>
-      <c r="H38" t="n">
-        <v>40</v>
       </c>
       <c r="I38" t="n">
         <v>150</v>
@@ -2285,10 +2285,10 @@
         <v>212</v>
       </c>
       <c r="G39" t="n">
-        <v>440</v>
+        <v>60</v>
       </c>
       <c r="H39" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="I39" t="n">
         <v>150</v>
@@ -2333,10 +2333,10 @@
         <v>210</v>
       </c>
       <c r="G40" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I40" t="n">
         <v>150</v>
@@ -2381,10 +2381,10 @@
         <v>208</v>
       </c>
       <c r="G41" t="n">
-        <v>140</v>
+        <v>380</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I41" t="n">
         <v>140</v>
@@ -2429,7 +2429,7 @@
         <v>209</v>
       </c>
       <c r="G42" t="n">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="H42" t="n">
         <v>180</v>
@@ -2477,13 +2477,13 @@
         <v>206</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I43" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="J43" t="n">
         <v>129.156381</v>
@@ -2528,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>150</v>
@@ -2573,10 +2573,10 @@
         <v>204</v>
       </c>
       <c r="G45" t="n">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="H45" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I45" t="n">
         <v>140</v>
@@ -2621,10 +2621,10 @@
         <v>205</v>
       </c>
       <c r="G46" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="H46" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="I46" t="n">
         <v>140</v>
@@ -2672,7 +2672,7 @@
         <v>100</v>
       </c>
       <c r="H47" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>140</v>
@@ -2717,10 +2717,10 @@
         <v>203</v>
       </c>
       <c r="G48" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I48" t="n">
         <v>140</v>
@@ -2768,7 +2768,7 @@
         <v>60</v>
       </c>
       <c r="H49" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>140</v>
@@ -2813,7 +2813,7 @@
         <v>199</v>
       </c>
       <c r="G50" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="H50" t="n">
         <v>160</v>
@@ -2861,13 +2861,13 @@
         <v>200</v>
       </c>
       <c r="G51" t="n">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="I51" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="J51" t="n">
         <v>129.130954</v>
@@ -2909,7 +2909,7 @@
         <v>198</v>
       </c>
       <c r="G52" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="H52" t="n">
         <v>120</v>
@@ -2957,10 +2957,10 @@
         <v>196</v>
       </c>
       <c r="G53" t="n">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="I53" t="n">
         <v>130</v>
@@ -3005,10 +3005,10 @@
         <v>197</v>
       </c>
       <c r="G54" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="H54" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I54" t="n">
         <v>130</v>
@@ -3053,10 +3053,10 @@
         <v>195</v>
       </c>
       <c r="G55" t="n">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="H55" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="I55" t="n">
         <v>130</v>
@@ -3101,7 +3101,7 @@
         <v>194</v>
       </c>
       <c r="G56" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="H56" t="n">
         <v>60</v>
@@ -3149,10 +3149,10 @@
         <v>193</v>
       </c>
       <c r="G57" t="n">
-        <v>360</v>
+        <v>420</v>
       </c>
       <c r="H57" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I57" t="n">
         <v>130</v>
@@ -3200,7 +3200,7 @@
         <v>340</v>
       </c>
       <c r="H58" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="I58" t="n">
         <v>130</v>
@@ -3245,7 +3245,7 @@
         <v>192</v>
       </c>
       <c r="G59" t="n">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3296,7 +3296,7 @@
         <v>320</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="I60" t="n">
         <v>130</v>
@@ -3341,10 +3341,10 @@
         <v>190</v>
       </c>
       <c r="G61" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="H61" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>130</v>
@@ -3389,13 +3389,13 @@
         <v>188</v>
       </c>
       <c r="G62" t="n">
-        <v>260</v>
+        <v>580</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>120</v>
-      </c>
-      <c r="I62" t="n">
-        <v>130</v>
       </c>
       <c r="J62" t="n">
         <v>129.203684</v>
@@ -3437,13 +3437,13 @@
         <v>187</v>
       </c>
       <c r="G63" t="n">
-        <v>220</v>
+        <v>540</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>120</v>
-      </c>
-      <c r="I63" t="n">
-        <v>130</v>
       </c>
       <c r="J63" t="n">
         <v>129.20222</v>
@@ -3485,10 +3485,10 @@
         <v>185</v>
       </c>
       <c r="G64" t="n">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="I64" t="n">
         <v>130</v>
@@ -3533,10 +3533,10 @@
         <v>186</v>
       </c>
       <c r="G65" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I65" t="n">
         <v>130</v>
@@ -3581,10 +3581,10 @@
         <v>184</v>
       </c>
       <c r="G66" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="H66" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="I66" t="n">
         <v>130</v>
@@ -3629,10 +3629,10 @@
         <v>183</v>
       </c>
       <c r="G67" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="H67" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="I67" t="n">
         <v>130</v>
@@ -3677,10 +3677,10 @@
         <v>182</v>
       </c>
       <c r="G68" t="n">
+        <v>80</v>
+      </c>
+      <c r="H68" t="n">
         <v>180</v>
-      </c>
-      <c r="H68" t="n">
-        <v>60</v>
       </c>
       <c r="I68" t="n">
         <v>130</v>
@@ -3725,10 +3725,10 @@
         <v>181</v>
       </c>
       <c r="G69" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="H69" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>120</v>
@@ -3773,10 +3773,10 @@
         <v>179</v>
       </c>
       <c r="G70" t="n">
-        <v>540</v>
+        <v>260</v>
       </c>
       <c r="H70" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>120</v>
@@ -3821,7 +3821,7 @@
         <v>180</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H71" t="n">
         <v>180</v>
@@ -3869,10 +3869,10 @@
         <v>177</v>
       </c>
       <c r="G72" t="n">
-        <v>580</v>
+        <v>480</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="I72" t="n">
         <v>120</v>
@@ -3920,7 +3920,7 @@
         <v>180</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="I73" t="n">
         <v>130</v>
@@ -3965,10 +3965,10 @@
         <v>176</v>
       </c>
       <c r="G74" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="H74" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>130</v>
@@ -4013,10 +4013,10 @@
         <v>175</v>
       </c>
       <c r="G75" t="n">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="H75" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="I75" t="n">
         <v>120</v>
@@ -4061,10 +4061,10 @@
         <v>174</v>
       </c>
       <c r="G76" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="H76" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="I76" t="n">
         <v>130</v>
@@ -4109,13 +4109,13 @@
         <v>172</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H77" t="n">
+        <v>40</v>
+      </c>
+      <c r="I77" t="n">
         <v>120</v>
-      </c>
-      <c r="I77" t="n">
-        <v>130</v>
       </c>
       <c r="J77" t="n">
         <v>129.111736</v>
@@ -4157,10 +4157,10 @@
         <v>173</v>
       </c>
       <c r="G78" t="n">
-        <v>380</v>
+        <v>160</v>
       </c>
       <c r="H78" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="I78" t="n">
         <v>120</v>
@@ -4205,13 +4205,13 @@
         <v>171</v>
       </c>
       <c r="G79" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="J79" t="n">
         <v>129.110588</v>
@@ -4253,10 +4253,10 @@
         <v>170</v>
       </c>
       <c r="G80" t="n">
-        <v>340</v>
+        <v>460</v>
       </c>
       <c r="H80" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>120</v>
@@ -4301,7 +4301,7 @@
         <v>169</v>
       </c>
       <c r="G81" t="n">
-        <v>540</v>
+        <v>380</v>
       </c>
       <c r="H81" t="n">
         <v>60</v>
@@ -4397,10 +4397,10 @@
         <v>167</v>
       </c>
       <c r="G83" t="n">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I83" t="n">
         <v>110</v>
@@ -4445,13 +4445,13 @@
         <v>165</v>
       </c>
       <c r="G84" t="n">
-        <v>380</v>
+        <v>120</v>
       </c>
       <c r="H84" t="n">
+        <v>160</v>
+      </c>
+      <c r="I84" t="n">
         <v>120</v>
-      </c>
-      <c r="I84" t="n">
-        <v>110</v>
       </c>
       <c r="J84" t="n">
         <v>129.109916</v>
@@ -4493,7 +4493,7 @@
         <v>166</v>
       </c>
       <c r="G85" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="H85" t="n">
         <v>160</v>
@@ -4541,13 +4541,13 @@
         <v>163</v>
       </c>
       <c r="G86" t="n">
-        <v>60</v>
+        <v>340</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I86" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="J86" t="n">
         <v>129.110361</v>
@@ -4589,10 +4589,10 @@
         <v>164</v>
       </c>
       <c r="G87" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I87" t="n">
         <v>110</v>
@@ -4637,13 +4637,13 @@
         <v>161</v>
       </c>
       <c r="G88" t="n">
-        <v>520</v>
+        <v>280</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I88" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="J88" t="n">
         <v>129.103703</v>
@@ -4685,10 +4685,10 @@
         <v>162</v>
       </c>
       <c r="G89" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="I89" t="n">
         <v>110</v>
@@ -4733,10 +4733,10 @@
         <v>159</v>
       </c>
       <c r="G90" t="n">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="H90" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="I90" t="n">
         <v>100</v>
@@ -4781,10 +4781,10 @@
         <v>160</v>
       </c>
       <c r="G91" t="n">
-        <v>300</v>
+        <v>560</v>
       </c>
       <c r="H91" t="n">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="I91" t="n">
         <v>100</v>
@@ -4829,10 +4829,10 @@
         <v>157</v>
       </c>
       <c r="G92" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="H92" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="I92" t="n">
         <v>100</v>
@@ -4877,10 +4877,10 @@
         <v>158</v>
       </c>
       <c r="G93" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="H93" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="I93" t="n">
         <v>100</v>
@@ -4925,10 +4925,10 @@
         <v>156</v>
       </c>
       <c r="G94" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="H94" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="I94" t="n">
         <v>100</v>
@@ -4973,10 +4973,10 @@
         <v>154</v>
       </c>
       <c r="G95" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="H95" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="I95" t="n">
         <v>100</v>
@@ -5021,10 +5021,10 @@
         <v>155</v>
       </c>
       <c r="G96" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="H96" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I96" t="n">
         <v>100</v>
@@ -5069,10 +5069,10 @@
         <v>153</v>
       </c>
       <c r="G97" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I97" t="n">
         <v>100</v>
@@ -5117,10 +5117,10 @@
         <v>151</v>
       </c>
       <c r="G98" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="H98" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I98" t="n">
         <v>100</v>
@@ -5165,13 +5165,13 @@
         <v>152</v>
       </c>
       <c r="G99" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="H99" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J99" t="n">
         <v>129.090927</v>
@@ -5216,7 +5216,7 @@
         <v>60</v>
       </c>
       <c r="H100" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>100</v>
@@ -5261,10 +5261,10 @@
         <v>149</v>
       </c>
       <c r="G101" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H101" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="I101" t="n">
         <v>100</v>
@@ -5309,13 +5309,13 @@
         <v>148</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="H102" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J102" t="n">
         <v>129.085082</v>
@@ -5357,7 +5357,7 @@
         <v>146</v>
       </c>
       <c r="G103" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -5405,13 +5405,13 @@
         <v>147</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H104" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J104" t="n">
         <v>129.070593</v>
@@ -5453,13 +5453,13 @@
         <v>145</v>
       </c>
       <c r="G105" t="n">
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="I105" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J105" t="n">
         <v>129.069358</v>
@@ -5597,10 +5597,10 @@
         <v>142</v>
       </c>
       <c r="G108" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="H108" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="I108" t="n">
         <v>90</v>
@@ -5645,7 +5645,7 @@
         <v>141</v>
       </c>
       <c r="G109" t="n">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="H109" t="n">
         <v>60</v>
@@ -5693,10 +5693,10 @@
         <v>139</v>
       </c>
       <c r="G110" t="n">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="H110" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>90</v>
@@ -5741,10 +5741,10 @@
         <v>140</v>
       </c>
       <c r="G111" t="n">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="H111" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>90</v>
@@ -5789,13 +5789,13 @@
         <v>138</v>
       </c>
       <c r="G112" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="H112" t="n">
         <v>60</v>
       </c>
       <c r="I112" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J112" t="n">
         <v>128.997646</v>
@@ -5837,13 +5837,13 @@
         <v>137</v>
       </c>
       <c r="G113" t="n">
-        <v>540</v>
+        <v>160</v>
       </c>
       <c r="H113" t="n">
         <v>60</v>
       </c>
       <c r="I113" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J113" t="n">
         <v>128.991402</v>
@@ -5885,7 +5885,7 @@
         <v>136</v>
       </c>
       <c r="G114" t="n">
-        <v>420</v>
+        <v>500</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -5933,7 +5933,7 @@
         <v>134</v>
       </c>
       <c r="G115" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5984,7 +5984,7 @@
         <v>340</v>
       </c>
       <c r="H116" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="I116" t="n">
         <v>90</v>
@@ -6032,7 +6032,7 @@
         <v>240</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I117" t="n">
         <v>90</v>
@@ -6077,10 +6077,10 @@
         <v>133</v>
       </c>
       <c r="G118" t="n">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="I118" t="n">
         <v>90</v>
@@ -6128,7 +6128,7 @@
         <v>180</v>
       </c>
       <c r="H119" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>90</v>
@@ -6173,10 +6173,10 @@
         <v>131</v>
       </c>
       <c r="G120" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="H120" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>90</v>
@@ -6221,10 +6221,10 @@
         <v>129</v>
       </c>
       <c r="G121" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H121" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="I121" t="n">
         <v>90</v>
@@ -6317,13 +6317,13 @@
         <v>128</v>
       </c>
       <c r="G123" t="n">
-        <v>580</v>
+        <v>40</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="I123" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J123" t="n">
         <v>128.968961</v>
@@ -6368,7 +6368,7 @@
         <v>120</v>
       </c>
       <c r="H124" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>90</v>
@@ -6413,10 +6413,10 @@
         <v>126</v>
       </c>
       <c r="G125" t="n">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="H125" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>80</v>
@@ -6461,10 +6461,10 @@
         <v>124</v>
       </c>
       <c r="G126" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="H126" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="I126" t="n">
         <v>80</v>
@@ -6509,10 +6509,10 @@
         <v>122</v>
       </c>
       <c r="G127" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="H127" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="I127" t="n">
         <v>80</v>
@@ -6557,10 +6557,10 @@
         <v>123</v>
       </c>
       <c r="G128" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="H128" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I128" t="n">
         <v>80</v>
@@ -6605,13 +6605,13 @@
         <v>120</v>
       </c>
       <c r="G129" t="n">
-        <v>60</v>
+        <v>340</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I129" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J129" t="n">
         <v>128.969823</v>
@@ -6653,10 +6653,10 @@
         <v>121</v>
       </c>
       <c r="G130" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="I130" t="n">
         <v>80</v>
@@ -6749,7 +6749,7 @@
         <v>118</v>
       </c>
       <c r="G132" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="H132" t="n">
         <v>60</v>
@@ -6797,13 +6797,13 @@
         <v>117</v>
       </c>
       <c r="G133" t="n">
-        <v>240</v>
+        <v>580</v>
       </c>
       <c r="H133" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J133" t="n">
         <v>128.961939</v>
@@ -6845,13 +6845,13 @@
         <v>115</v>
       </c>
       <c r="G134" t="n">
-        <v>180</v>
+        <v>540</v>
       </c>
       <c r="H134" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J134" t="n">
         <v>128.948085</v>
@@ -6893,10 +6893,10 @@
         <v>116</v>
       </c>
       <c r="G135" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="H135" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I135" t="n">
         <v>70</v>
@@ -6941,13 +6941,13 @@
         <v>114</v>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="H136" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J136" t="n">
         <v>128.966086</v>
@@ -6989,10 +6989,10 @@
         <v>113</v>
       </c>
       <c r="G137" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="H137" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="I137" t="n">
         <v>60</v>
@@ -7085,10 +7085,10 @@
         <v>111</v>
       </c>
       <c r="G139" t="n">
-        <v>460</v>
+        <v>560</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I139" t="n">
         <v>80</v>
@@ -7133,10 +7133,10 @@
         <v>110</v>
       </c>
       <c r="G140" t="n">
-        <v>360</v>
+        <v>440</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I140" t="n">
         <v>80</v>
@@ -7181,10 +7181,10 @@
         <v>109</v>
       </c>
       <c r="G141" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I141" t="n">
         <v>60</v>
@@ -7229,13 +7229,13 @@
         <v>107</v>
       </c>
       <c r="G142" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="H142" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="I142" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J142" t="n">
         <v>128.983776</v>
@@ -7277,10 +7277,10 @@
         <v>108</v>
       </c>
       <c r="G143" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="H143" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="I143" t="n">
         <v>80</v>
@@ -7325,13 +7325,13 @@
         <v>105</v>
       </c>
       <c r="G144" t="n">
-        <v>580</v>
+        <v>80</v>
       </c>
       <c r="H144" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="I144" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J144" t="n">
         <v>128.990077</v>
@@ -7373,13 +7373,13 @@
         <v>106</v>
       </c>
       <c r="G145" t="n">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="H145" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="I145" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J145" t="n">
         <v>128.990077</v>
@@ -7421,7 +7421,7 @@
         <v>103</v>
       </c>
       <c r="G146" t="n">
-        <v>240</v>
+        <v>380</v>
       </c>
       <c r="H146" t="n">
         <v>160</v>
@@ -7469,10 +7469,10 @@
         <v>104</v>
       </c>
       <c r="G147" t="n">
-        <v>540</v>
+        <v>400</v>
       </c>
       <c r="H147" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I147" t="n">
         <v>70</v>
@@ -7517,13 +7517,13 @@
         <v>102</v>
       </c>
       <c r="G148" t="n">
-        <v>540</v>
+        <v>40</v>
       </c>
       <c r="H148" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="I148" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J148" t="n">
         <v>128.998112</v>
@@ -7565,10 +7565,10 @@
         <v>100</v>
       </c>
       <c r="G149" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I149" t="n">
         <v>50</v>
@@ -7616,7 +7616,7 @@
         <v>520</v>
       </c>
       <c r="H150" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="I150" t="n">
         <v>50</v>
@@ -7661,7 +7661,7 @@
         <v>99</v>
       </c>
       <c r="G151" t="n">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="H151" t="n">
         <v>120</v>
@@ -7694,22 +7694,22 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>D_00135</t>
+          <t>D_00106</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>B_00197</t>
+          <t>B_00156</t>
         </is>
       </c>
       <c r="F152" t="n">
         <v>97</v>
       </c>
       <c r="G152" t="n">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="H152" t="n">
         <v>120</v>
@@ -7718,10 +7718,10 @@
         <v>50</v>
       </c>
       <c r="J152" t="n">
-        <v>129.069602</v>
+        <v>129.067679</v>
       </c>
       <c r="K152" t="n">
-        <v>35.131978</v>
+        <v>35.134294</v>
       </c>
       <c r="L152" t="n">
         <v>30</v>
@@ -7742,43 +7742,43 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>D_00135</t>
+          <t>D_00106</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>B_00196</t>
+          <t>B_00155</t>
         </is>
       </c>
       <c r="F153" t="n">
         <v>98</v>
       </c>
       <c r="G153" t="n">
-        <v>420</v>
+        <v>500</v>
       </c>
       <c r="H153" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>50</v>
       </c>
       <c r="J153" t="n">
-        <v>129.069602</v>
+        <v>129.067679</v>
       </c>
       <c r="K153" t="n">
-        <v>35.131978</v>
+        <v>35.134294</v>
       </c>
       <c r="L153" t="n">
         <v>30</v>
       </c>
       <c r="M153" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N153" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="154">
@@ -7790,34 +7790,34 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>D_00106</t>
+          <t>D_00135</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>B_00156</t>
+          <t>B_00197</t>
         </is>
       </c>
       <c r="F154" t="n">
         <v>95</v>
       </c>
       <c r="G154" t="n">
-        <v>360</v>
+        <v>420</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I154" t="n">
         <v>50</v>
       </c>
       <c r="J154" t="n">
-        <v>129.067679</v>
+        <v>129.069602</v>
       </c>
       <c r="K154" t="n">
-        <v>35.134294</v>
+        <v>35.131978</v>
       </c>
       <c r="L154" t="n">
         <v>30</v>
@@ -7838,43 +7838,43 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>D_00106</t>
+          <t>D_00135</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>B_00155</t>
+          <t>B_00196</t>
         </is>
       </c>
       <c r="F155" t="n">
         <v>96</v>
       </c>
       <c r="G155" t="n">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I155" t="n">
         <v>50</v>
       </c>
       <c r="J155" t="n">
-        <v>129.067679</v>
+        <v>129.069602</v>
       </c>
       <c r="K155" t="n">
-        <v>35.134294</v>
+        <v>35.131978</v>
       </c>
       <c r="L155" t="n">
         <v>30</v>
       </c>
       <c r="M155" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N155" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="156">
@@ -7886,43 +7886,43 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>D_00115</t>
+          <t>D_00098</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>B_00169</t>
+          <t>B_00142</t>
         </is>
       </c>
       <c r="F156" t="n">
         <v>94</v>
       </c>
       <c r="G156" t="n">
-        <v>320</v>
+        <v>420</v>
       </c>
       <c r="H156" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>50</v>
       </c>
       <c r="J156" t="n">
-        <v>129.06626</v>
+        <v>129.069024</v>
       </c>
       <c r="K156" t="n">
-        <v>35.139931</v>
+        <v>35.135589</v>
       </c>
       <c r="L156" t="n">
         <v>30</v>
       </c>
       <c r="M156" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N156" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="157">
@@ -7934,22 +7934,22 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>D_00005</t>
+          <t>D_00105</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>B_00007</t>
+          <t>B_00154</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G157" t="n">
-        <v>140</v>
+        <v>380</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -7958,19 +7958,19 @@
         <v>50</v>
       </c>
       <c r="J157" t="n">
-        <v>129.06169</v>
+        <v>129.074257</v>
       </c>
       <c r="K157" t="n">
-        <v>35.147128</v>
+        <v>35.136363</v>
       </c>
       <c r="L157" t="n">
         <v>30</v>
       </c>
       <c r="M157" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N157" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="158">
@@ -7978,47 +7978,47 @@
         <v>0</v>
       </c>
       <c r="B158" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>D_00023</t>
+          <t>D_00105</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>B_00032</t>
+          <t>B_00153</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G158" t="n">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="H158" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="I158" t="n">
         <v>50</v>
       </c>
       <c r="J158" t="n">
-        <v>129.062335</v>
+        <v>129.074257</v>
       </c>
       <c r="K158" t="n">
-        <v>35.143562</v>
+        <v>35.136363</v>
       </c>
       <c r="L158" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M158" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N158" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="159">
@@ -8030,43 +8030,43 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>D_00023</t>
+          <t>D_00128</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>31</v>
+        <v>187</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>B_00031</t>
+          <t>B_00187</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G159" t="n">
-        <v>320</v>
+        <v>120</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I159" t="n">
         <v>50</v>
       </c>
       <c r="J159" t="n">
-        <v>129.062335</v>
+        <v>129.075227</v>
       </c>
       <c r="K159" t="n">
-        <v>35.143562</v>
+        <v>35.134173</v>
       </c>
       <c r="L159" t="n">
         <v>30</v>
       </c>
       <c r="M159" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N159" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="160">
@@ -8078,22 +8078,22 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>D_00028</t>
+          <t>D_00122</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>B_00040</t>
+          <t>B_00179</t>
         </is>
       </c>
       <c r="F160" t="n">
         <v>89</v>
       </c>
       <c r="G160" t="n">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -8102,10 +8102,10 @@
         <v>50</v>
       </c>
       <c r="J160" t="n">
-        <v>129.0606</v>
+        <v>129.076695</v>
       </c>
       <c r="K160" t="n">
-        <v>35.142604</v>
+        <v>35.136512</v>
       </c>
       <c r="L160" t="n">
         <v>30</v>
@@ -8126,34 +8126,34 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>D_00028</t>
+          <t>D_00122</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>B_00039</t>
+          <t>B_00178</t>
         </is>
       </c>
       <c r="F161" t="n">
         <v>90</v>
       </c>
       <c r="G161" t="n">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="I161" t="n">
         <v>50</v>
       </c>
       <c r="J161" t="n">
-        <v>129.0606</v>
+        <v>129.076695</v>
       </c>
       <c r="K161" t="n">
-        <v>35.142604</v>
+        <v>35.136512</v>
       </c>
       <c r="L161" t="n">
         <v>30</v>
@@ -8174,43 +8174,43 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>D_00018</t>
+          <t>D_00112</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>B_00026</t>
+          <t>B_00164</t>
         </is>
       </c>
       <c r="F162" t="n">
         <v>88</v>
       </c>
       <c r="G162" t="n">
-        <v>60</v>
+        <v>280</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I162" t="n">
         <v>50</v>
       </c>
       <c r="J162" t="n">
-        <v>129.059546</v>
+        <v>129.089287</v>
       </c>
       <c r="K162" t="n">
-        <v>35.142568</v>
+        <v>35.133687</v>
       </c>
       <c r="L162" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M162" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N162" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="163">
@@ -8222,43 +8222,43 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>D_00098</t>
+          <t>D_00102</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>B_00142</t>
+          <t>B_00149</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G163" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="H163" t="n">
         <v>160</v>
       </c>
       <c r="I163" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J163" t="n">
-        <v>129.069024</v>
+        <v>129.090776</v>
       </c>
       <c r="K163" t="n">
-        <v>35.135589</v>
+        <v>35.134223</v>
       </c>
       <c r="L163" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M163" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N163" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="164">
@@ -8266,47 +8266,47 @@
         <v>0</v>
       </c>
       <c r="B164" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>D_00128</t>
+          <t>D_00102</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>B_00187</t>
+          <t>B_00148</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G164" t="n">
-        <v>560</v>
+        <v>120</v>
       </c>
       <c r="H164" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J164" t="n">
-        <v>129.075227</v>
+        <v>129.090776</v>
       </c>
       <c r="K164" t="n">
-        <v>35.134173</v>
+        <v>35.134223</v>
       </c>
       <c r="L164" t="n">
         <v>30</v>
       </c>
       <c r="M164" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N164" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="165">
@@ -8314,47 +8314,47 @@
         <v>0</v>
       </c>
       <c r="B165" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>D_00112</t>
+          <t>D_00124</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>B_00164</t>
+          <t>B_00182</t>
         </is>
       </c>
       <c r="F165" t="n">
         <v>85</v>
       </c>
       <c r="G165" t="n">
-        <v>180</v>
+        <v>580</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="I165" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J165" t="n">
-        <v>129.089287</v>
+        <v>129.095057</v>
       </c>
       <c r="K165" t="n">
-        <v>35.133687</v>
+        <v>35.133545</v>
       </c>
       <c r="L165" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M165" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N165" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="166">
@@ -8362,47 +8362,47 @@
         <v>0</v>
       </c>
       <c r="B166" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>D_00102</t>
+          <t>D_00104</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>B_00149</t>
+          <t>B_00152</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G166" t="n">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="H166" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="I166" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J166" t="n">
-        <v>129.090776</v>
+        <v>129.111516</v>
       </c>
       <c r="K166" t="n">
-        <v>35.134223</v>
+        <v>35.117413</v>
       </c>
       <c r="L166" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M166" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N166" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="167">
@@ -8414,34 +8414,34 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>D_00102</t>
+          <t>D_00123</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>B_00148</t>
+          <t>B_00181</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G167" t="n">
-        <v>580</v>
+        <v>480</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="I167" t="n">
         <v>40</v>
       </c>
       <c r="J167" t="n">
-        <v>129.090776</v>
+        <v>129.111484</v>
       </c>
       <c r="K167" t="n">
-        <v>35.134223</v>
+        <v>35.111022</v>
       </c>
       <c r="L167" t="n">
         <v>30</v>
@@ -8458,47 +8458,47 @@
         <v>0</v>
       </c>
       <c r="B168" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>D_00124</t>
+          <t>D_00123</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>B_00182</t>
+          <t>B_00180</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G168" t="n">
-        <v>480</v>
+        <v>180</v>
       </c>
       <c r="H168" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="I168" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J168" t="n">
-        <v>129.095057</v>
+        <v>129.111484</v>
       </c>
       <c r="K168" t="n">
-        <v>35.133545</v>
+        <v>35.111022</v>
       </c>
       <c r="L168" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M168" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N168" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="169">
@@ -8506,47 +8506,47 @@
         <v>0</v>
       </c>
       <c r="B169" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>D_00104</t>
+          <t>D_00109</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>B_00152</t>
+          <t>B_00161</t>
         </is>
       </c>
       <c r="F169" t="n">
         <v>81</v>
       </c>
       <c r="G169" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="H169" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="I169" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J169" t="n">
-        <v>129.111516</v>
+        <v>129.11179</v>
       </c>
       <c r="K169" t="n">
-        <v>35.117413</v>
+        <v>35.108514</v>
       </c>
       <c r="L169" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M169" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N169" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="170">
@@ -8554,38 +8554,38 @@
         <v>0</v>
       </c>
       <c r="B170" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>D_00123</t>
+          <t>D_00121</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>B_00181</t>
+          <t>B_00177</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G170" t="n">
-        <v>380</v>
+        <v>460</v>
       </c>
       <c r="H170" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>40</v>
       </c>
       <c r="J170" t="n">
-        <v>129.111484</v>
+        <v>129.114334</v>
       </c>
       <c r="K170" t="n">
-        <v>35.111022</v>
+        <v>35.114908</v>
       </c>
       <c r="L170" t="n">
         <v>30</v>
@@ -8606,43 +8606,43 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>D_00123</t>
+          <t>D_00111</t>
         </is>
       </c>
       <c r="D171" t="n">
+        <v>163</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>B_00163</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>79</v>
+      </c>
+      <c r="G171" t="n">
+        <v>440</v>
+      </c>
+      <c r="H171" t="n">
         <v>180</v>
       </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>B_00180</t>
-        </is>
-      </c>
-      <c r="F171" t="n">
-        <v>80</v>
-      </c>
-      <c r="G171" t="n">
-        <v>60</v>
-      </c>
-      <c r="H171" t="n">
-        <v>100</v>
-      </c>
       <c r="I171" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J171" t="n">
-        <v>129.111484</v>
+        <v>129.115372</v>
       </c>
       <c r="K171" t="n">
-        <v>35.111022</v>
+        <v>35.120226</v>
       </c>
       <c r="L171" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M171" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N171" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="172">
@@ -8654,43 +8654,43 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>D_00109</t>
+          <t>D_00126</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>B_00161</t>
+          <t>B_00185</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G172" t="n">
-        <v>60</v>
+        <v>260</v>
       </c>
       <c r="H172" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="I172" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J172" t="n">
-        <v>129.11179</v>
+        <v>129.109204</v>
       </c>
       <c r="K172" t="n">
-        <v>35.108514</v>
+        <v>35.120057</v>
       </c>
       <c r="L172" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M172" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N172" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="173">
@@ -8698,47 +8698,47 @@
         <v>0</v>
       </c>
       <c r="B173" t="n">
+        <v>119</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>D_00126</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>184</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>B_00184</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>78</v>
+      </c>
+      <c r="G173" t="n">
+        <v>340</v>
+      </c>
+      <c r="H173" t="n">
         <v>120</v>
       </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>D_00121</t>
-        </is>
-      </c>
-      <c r="D173" t="n">
-        <v>177</v>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>B_00177</t>
-        </is>
-      </c>
-      <c r="F173" t="n">
-        <v>77</v>
-      </c>
-      <c r="G173" t="n">
-        <v>360</v>
-      </c>
-      <c r="H173" t="n">
-        <v>180</v>
-      </c>
       <c r="I173" t="n">
         <v>40</v>
       </c>
       <c r="J173" t="n">
-        <v>129.114334</v>
+        <v>129.109204</v>
       </c>
       <c r="K173" t="n">
-        <v>35.114908</v>
+        <v>35.120057</v>
       </c>
       <c r="L173" t="n">
         <v>30</v>
       </c>
       <c r="M173" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N173" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="174">
@@ -8746,26 +8746,26 @@
         <v>0</v>
       </c>
       <c r="B174" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>D_00111</t>
+          <t>D_00108</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>B_00163</t>
+          <t>B_00160</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G174" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="H174" t="n">
         <v>180</v>
@@ -8774,19 +8774,19 @@
         <v>40</v>
       </c>
       <c r="J174" t="n">
-        <v>129.115372</v>
+        <v>129.094705</v>
       </c>
       <c r="K174" t="n">
-        <v>35.120226</v>
+        <v>35.124453</v>
       </c>
       <c r="L174" t="n">
         <v>30</v>
       </c>
       <c r="M174" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N174" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="175">
@@ -8794,47 +8794,47 @@
         <v>0</v>
       </c>
       <c r="B175" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>D_00126</t>
+          <t>D_00108</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>B_00185</t>
+          <t>B_00159</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G175" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="H175" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="I175" t="n">
         <v>40</v>
       </c>
       <c r="J175" t="n">
-        <v>129.109204</v>
+        <v>129.094705</v>
       </c>
       <c r="K175" t="n">
-        <v>35.120057</v>
+        <v>35.124453</v>
       </c>
       <c r="L175" t="n">
         <v>30</v>
       </c>
       <c r="M175" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N175" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="176">
@@ -8842,47 +8842,47 @@
         <v>0</v>
       </c>
       <c r="B176" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>D_00126</t>
+          <t>D_00114</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>B_00184</t>
+          <t>B_00168</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G176" t="n">
-        <v>280</v>
+        <v>60</v>
       </c>
       <c r="H176" t="n">
         <v>60</v>
       </c>
       <c r="I176" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J176" t="n">
-        <v>129.109204</v>
+        <v>129.092379</v>
       </c>
       <c r="K176" t="n">
-        <v>35.120057</v>
+        <v>35.131901</v>
       </c>
       <c r="L176" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M176" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N176" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="177">
@@ -8890,47 +8890,47 @@
         <v>0</v>
       </c>
       <c r="B177" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>D_00108</t>
+          <t>D_00114</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>B_00160</t>
+          <t>B_00167</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G177" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H177" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="I177" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J177" t="n">
-        <v>129.094705</v>
+        <v>129.092379</v>
       </c>
       <c r="K177" t="n">
-        <v>35.124453</v>
+        <v>35.131901</v>
       </c>
       <c r="L177" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M177" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N177" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="178">
@@ -8938,47 +8938,47 @@
         <v>0</v>
       </c>
       <c r="B178" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>D_00108</t>
+          <t>D_00130</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>B_00159</t>
+          <t>B_00191</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G178" t="n">
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="H178" t="n">
         <v>120</v>
       </c>
       <c r="I178" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J178" t="n">
-        <v>129.094705</v>
+        <v>129.090592</v>
       </c>
       <c r="K178" t="n">
-        <v>35.124453</v>
+        <v>35.131124</v>
       </c>
       <c r="L178" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M178" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N178" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="179">
@@ -8986,38 +8986,38 @@
         <v>0</v>
       </c>
       <c r="B179" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>D_00114</t>
+          <t>D_00130</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>B_00168</t>
+          <t>B_00190</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G179" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H179" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>50</v>
       </c>
       <c r="J179" t="n">
-        <v>129.092379</v>
+        <v>129.090592</v>
       </c>
       <c r="K179" t="n">
-        <v>35.131901</v>
+        <v>35.131124</v>
       </c>
       <c r="L179" t="n">
         <v>50</v>
@@ -9034,47 +9034,47 @@
         <v>0</v>
       </c>
       <c r="B180" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>D_00114</t>
+          <t>D_00127</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>B_00167</t>
+          <t>B_00186</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G180" t="n">
         <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="I180" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J180" t="n">
-        <v>129.092379</v>
+        <v>129.086588</v>
       </c>
       <c r="K180" t="n">
-        <v>35.131901</v>
+        <v>35.131205</v>
       </c>
       <c r="L180" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M180" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N180" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="181">
@@ -9082,38 +9082,38 @@
         <v>0</v>
       </c>
       <c r="B181" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>D_00130</t>
+          <t>D_00131</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>B_00191</t>
+          <t>B_00192</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G181" t="n">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="H181" t="n">
         <v>60</v>
       </c>
       <c r="I181" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J181" t="n">
-        <v>129.090592</v>
+        <v>129.087817</v>
       </c>
       <c r="K181" t="n">
-        <v>35.131124</v>
+        <v>35.135377</v>
       </c>
       <c r="L181" t="n">
         <v>50</v>
@@ -9134,19 +9134,19 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>D_00130</t>
+          <t>D_00110</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>B_00190</t>
+          <t>B_00162</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G182" t="n">
         <v>0</v>
@@ -9158,10 +9158,10 @@
         <v>50</v>
       </c>
       <c r="J182" t="n">
-        <v>129.090592</v>
+        <v>129.087592</v>
       </c>
       <c r="K182" t="n">
-        <v>35.131124</v>
+        <v>35.140751</v>
       </c>
       <c r="L182" t="n">
         <v>50</v>
@@ -9182,43 +9182,43 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>D_00127</t>
+          <t>D_00133</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>B_00186</t>
+          <t>B_00194</t>
         </is>
       </c>
       <c r="F183" t="n">
         <v>67</v>
       </c>
       <c r="G183" t="n">
-        <v>440</v>
+        <v>560</v>
       </c>
       <c r="H183" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>30</v>
       </c>
       <c r="J183" t="n">
-        <v>129.086588</v>
+        <v>129.084479</v>
       </c>
       <c r="K183" t="n">
-        <v>35.131205</v>
+        <v>35.138525</v>
       </c>
       <c r="L183" t="n">
         <v>30</v>
       </c>
       <c r="M183" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N183" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="184">
@@ -9230,34 +9230,34 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>D_00131</t>
+          <t>D_00113</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>B_00192</t>
+          <t>B_00166</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G184" t="n">
         <v>340</v>
       </c>
       <c r="H184" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="I184" t="n">
         <v>40</v>
       </c>
       <c r="J184" t="n">
-        <v>129.087817</v>
+        <v>129.084187</v>
       </c>
       <c r="K184" t="n">
-        <v>35.135377</v>
+        <v>35.139637</v>
       </c>
       <c r="L184" t="n">
         <v>50</v>
@@ -9274,47 +9274,47 @@
         <v>0</v>
       </c>
       <c r="B185" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>D_00110</t>
+          <t>D_00113</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>B_00162</t>
+          <t>B_00165</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G185" t="n">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="H185" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J185" t="n">
-        <v>129.087592</v>
+        <v>129.084187</v>
       </c>
       <c r="K185" t="n">
-        <v>35.140751</v>
+        <v>35.139637</v>
       </c>
       <c r="L185" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M185" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N185" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="186">
@@ -9322,47 +9322,47 @@
         <v>0</v>
       </c>
       <c r="B186" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>D_00133</t>
+          <t>D_00101</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>194</v>
+        <v>147</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>B_00194</t>
+          <t>B_00147</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G186" t="n">
-        <v>320</v>
+        <v>520</v>
       </c>
       <c r="H186" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="I186" t="n">
         <v>30</v>
       </c>
       <c r="J186" t="n">
-        <v>129.084479</v>
+        <v>129.077962</v>
       </c>
       <c r="K186" t="n">
-        <v>35.138525</v>
+        <v>35.145218</v>
       </c>
       <c r="L186" t="n">
         <v>30</v>
       </c>
       <c r="M186" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N186" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="187">
@@ -9370,38 +9370,38 @@
         <v>0</v>
       </c>
       <c r="B187" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>D_00113</t>
+          <t>D_00101</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>B_00166</t>
+          <t>B_00146</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G187" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="H187" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I187" t="n">
         <v>40</v>
       </c>
       <c r="J187" t="n">
-        <v>129.084187</v>
+        <v>129.077962</v>
       </c>
       <c r="K187" t="n">
-        <v>35.139637</v>
+        <v>35.145218</v>
       </c>
       <c r="L187" t="n">
         <v>50</v>
@@ -9418,47 +9418,47 @@
         <v>0</v>
       </c>
       <c r="B188" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>D_00113</t>
+          <t>D_00116</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>B_00165</t>
+          <t>B_00170</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G188" t="n">
-        <v>240</v>
+        <v>420</v>
       </c>
       <c r="H188" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="I188" t="n">
         <v>30</v>
       </c>
       <c r="J188" t="n">
-        <v>129.084187</v>
+        <v>129.07731</v>
       </c>
       <c r="K188" t="n">
-        <v>35.139637</v>
+        <v>35.144025</v>
       </c>
       <c r="L188" t="n">
         <v>30</v>
       </c>
       <c r="M188" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N188" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="189">
@@ -9466,47 +9466,47 @@
         <v>0</v>
       </c>
       <c r="B189" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>D_00122</t>
+          <t>D_00107</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>B_00179</t>
+          <t>B_00158</t>
         </is>
       </c>
       <c r="F189" t="n">
         <v>60</v>
       </c>
       <c r="G189" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="H189" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J189" t="n">
-        <v>129.076695</v>
+        <v>129.071514</v>
       </c>
       <c r="K189" t="n">
-        <v>35.136512</v>
+        <v>35.142264</v>
       </c>
       <c r="L189" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M189" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N189" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="190">
@@ -9514,38 +9514,38 @@
         <v>0</v>
       </c>
       <c r="B190" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>D_00122</t>
+          <t>D_00107</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>B_00178</t>
+          <t>B_00157</t>
         </is>
       </c>
       <c r="F190" t="n">
         <v>61</v>
       </c>
       <c r="G190" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="H190" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="I190" t="n">
         <v>30</v>
       </c>
       <c r="J190" t="n">
-        <v>129.076695</v>
+        <v>129.071514</v>
       </c>
       <c r="K190" t="n">
-        <v>35.136512</v>
+        <v>35.142264</v>
       </c>
       <c r="L190" t="n">
         <v>30</v>
@@ -9562,47 +9562,47 @@
         <v>0</v>
       </c>
       <c r="B191" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>D_00105</t>
+          <t>D_00115</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>B_00154</t>
+          <t>B_00169</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G191" t="n">
         <v>200</v>
       </c>
       <c r="H191" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="I191" t="n">
         <v>30</v>
       </c>
       <c r="J191" t="n">
-        <v>129.074257</v>
+        <v>129.06626</v>
       </c>
       <c r="K191" t="n">
-        <v>35.136363</v>
+        <v>35.139931</v>
       </c>
       <c r="L191" t="n">
         <v>30</v>
       </c>
       <c r="M191" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N191" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="192">
@@ -9614,34 +9614,34 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>D_00105</t>
+          <t>D_00005</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>153</v>
+        <v>7</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>B_00153</t>
+          <t>B_00007</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G192" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I192" t="n">
         <v>30</v>
       </c>
       <c r="J192" t="n">
-        <v>129.074257</v>
+        <v>129.06169</v>
       </c>
       <c r="K192" t="n">
-        <v>35.136363</v>
+        <v>35.147128</v>
       </c>
       <c r="L192" t="n">
         <v>30</v>
@@ -9662,34 +9662,34 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>D_00107</t>
+          <t>D_00023</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>B_00158</t>
+          <t>B_00032</t>
         </is>
       </c>
       <c r="F193" t="n">
         <v>56</v>
       </c>
       <c r="G193" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="H193" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>40</v>
       </c>
       <c r="J193" t="n">
-        <v>129.071514</v>
+        <v>129.062335</v>
       </c>
       <c r="K193" t="n">
-        <v>35.142264</v>
+        <v>35.143562</v>
       </c>
       <c r="L193" t="n">
         <v>50</v>
@@ -9710,34 +9710,34 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>D_00107</t>
+          <t>D_00023</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>B_00157</t>
+          <t>B_00031</t>
         </is>
       </c>
       <c r="F194" t="n">
         <v>57</v>
       </c>
       <c r="G194" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H194" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="I194" t="n">
         <v>30</v>
       </c>
       <c r="J194" t="n">
-        <v>129.071514</v>
+        <v>129.062335</v>
       </c>
       <c r="K194" t="n">
-        <v>35.142264</v>
+        <v>35.143562</v>
       </c>
       <c r="L194" t="n">
         <v>30</v>
@@ -9758,34 +9758,34 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>D_00116</t>
+          <t>D_00028</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>B_00170</t>
+          <t>B_00040</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G195" t="n">
-        <v>580</v>
+        <v>160</v>
       </c>
       <c r="H195" t="n">
         <v>180</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J195" t="n">
-        <v>129.07731</v>
+        <v>129.0606</v>
       </c>
       <c r="K195" t="n">
-        <v>35.144025</v>
+        <v>35.142604</v>
       </c>
       <c r="L195" t="n">
         <v>30</v>
@@ -9802,38 +9802,38 @@
         <v>0</v>
       </c>
       <c r="B196" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>D_00101</t>
+          <t>D_00028</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>B_00147</t>
+          <t>B_00039</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G196" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="H196" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J196" t="n">
-        <v>129.077962</v>
+        <v>129.0606</v>
       </c>
       <c r="K196" t="n">
-        <v>35.145218</v>
+        <v>35.142604</v>
       </c>
       <c r="L196" t="n">
         <v>30</v>
@@ -9854,43 +9854,43 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>D_00101</t>
+          <t>D_00018</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>146</v>
+        <v>26</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>B_00146</t>
+          <t>B_00026</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G197" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H197" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="I197" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J197" t="n">
-        <v>129.077962</v>
+        <v>129.059546</v>
       </c>
       <c r="K197" t="n">
-        <v>35.145218</v>
+        <v>35.142568</v>
       </c>
       <c r="L197" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M197" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N197" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="198">
@@ -9902,43 +9902,43 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>D_00002</t>
+          <t>D_00043</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>B_00002</t>
+          <t>B_00060</t>
         </is>
       </c>
       <c r="F198" t="n">
         <v>52</v>
       </c>
       <c r="G198" t="n">
-        <v>460</v>
+        <v>40</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="I198" t="n">
         <v>30</v>
       </c>
       <c r="J198" t="n">
-        <v>129.071372</v>
+        <v>129.058861</v>
       </c>
       <c r="K198" t="n">
-        <v>35.159031</v>
+        <v>35.160872</v>
       </c>
       <c r="L198" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M198" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N198" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="199">
@@ -9950,43 +9950,43 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>D_00056</t>
+          <t>D_00014</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>B_00079</t>
+          <t>B_00022</t>
         </is>
       </c>
       <c r="F199" t="n">
         <v>50</v>
       </c>
       <c r="G199" t="n">
-        <v>560</v>
+        <v>580</v>
       </c>
       <c r="H199" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
       <c r="J199" t="n">
-        <v>129.068485</v>
+        <v>129.060913</v>
       </c>
       <c r="K199" t="n">
-        <v>35.159877</v>
+        <v>35.161701</v>
       </c>
       <c r="L199" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M199" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N199" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="200">
@@ -9998,15 +9998,15 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>D_00056</t>
+          <t>D_00014</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>B_00078</t>
+          <t>B_00021</t>
         </is>
       </c>
       <c r="F200" t="n">
@@ -10016,16 +10016,16 @@
         <v>580</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
       <c r="J200" t="n">
-        <v>129.068485</v>
+        <v>129.060913</v>
       </c>
       <c r="K200" t="n">
-        <v>35.159877</v>
+        <v>35.161701</v>
       </c>
       <c r="L200" t="n">
         <v>30</v>
@@ -10046,43 +10046,43 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>D_00025</t>
+          <t>D_00016</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>B_00036</t>
+          <t>B_00024</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G201" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="H201" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
       <c r="J201" t="n">
-        <v>129.066255</v>
+        <v>129.048426</v>
       </c>
       <c r="K201" t="n">
-        <v>35.153821</v>
+        <v>35.158583</v>
       </c>
       <c r="L201" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M201" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N201" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="202">
@@ -10090,47 +10090,47 @@
         <v>0</v>
       </c>
       <c r="B202" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>D_00025</t>
+          <t>D_00042</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>B_00035</t>
+          <t>B_00059</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G202" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="H202" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
       <c r="J202" t="n">
-        <v>129.066255</v>
+        <v>129.04369</v>
       </c>
       <c r="K202" t="n">
-        <v>35.153821</v>
+        <v>35.156398</v>
       </c>
       <c r="L202" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M202" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N202" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="203">
@@ -10138,47 +10138,47 @@
         <v>0</v>
       </c>
       <c r="B203" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>D_00043</t>
+          <t>D_00048</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>B_00060</t>
+          <t>B_00066</t>
         </is>
       </c>
       <c r="F203" t="n">
         <v>47</v>
       </c>
       <c r="G203" t="n">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="H203" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
       <c r="J203" t="n">
-        <v>129.058861</v>
+        <v>129.03575</v>
       </c>
       <c r="K203" t="n">
-        <v>35.160872</v>
+        <v>35.155222</v>
       </c>
       <c r="L203" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M203" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N203" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="204">
@@ -10186,47 +10186,47 @@
         <v>0</v>
       </c>
       <c r="B204" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>D_00014</t>
+          <t>D_00027</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>B_00022</t>
+          <t>B_00038</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G204" t="n">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="H204" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
       <c r="J204" t="n">
-        <v>129.060913</v>
+        <v>129.033166</v>
       </c>
       <c r="K204" t="n">
-        <v>35.161701</v>
+        <v>35.154793</v>
       </c>
       <c r="L204" t="n">
         <v>30</v>
       </c>
       <c r="M204" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N204" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="205">
@@ -10234,23 +10234,23 @@
         <v>0</v>
       </c>
       <c r="B205" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>D_00014</t>
+          <t>D_00055</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>B_00021</t>
+          <t>B_00077</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G205" t="n">
         <v>520</v>
@@ -10262,19 +10262,19 @@
         <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>129.060913</v>
+        <v>129.042749</v>
       </c>
       <c r="K205" t="n">
-        <v>35.161701</v>
+        <v>35.162679</v>
       </c>
       <c r="L205" t="n">
         <v>30</v>
       </c>
       <c r="M205" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N205" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="206">
@@ -10282,47 +10282,47 @@
         <v>0</v>
       </c>
       <c r="B206" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>D_00016</t>
+          <t>D_00051</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>B_00024</t>
+          <t>B_00071</t>
         </is>
       </c>
       <c r="F206" t="n">
         <v>44</v>
       </c>
       <c r="G206" t="n">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
       <c r="J206" t="n">
-        <v>129.048426</v>
+        <v>129.041795</v>
       </c>
       <c r="K206" t="n">
-        <v>35.158583</v>
+        <v>35.162733</v>
       </c>
       <c r="L206" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M206" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N206" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="207">
@@ -10330,47 +10330,47 @@
         <v>0</v>
       </c>
       <c r="B207" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>D_00042</t>
+          <t>D_00030</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>B_00059</t>
+          <t>B_00042</t>
         </is>
       </c>
       <c r="F207" t="n">
         <v>43</v>
       </c>
       <c r="G207" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="H207" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
       <c r="J207" t="n">
-        <v>129.04369</v>
+        <v>129.038775</v>
       </c>
       <c r="K207" t="n">
-        <v>35.156398</v>
+        <v>35.170402</v>
       </c>
       <c r="L207" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M207" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N207" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="208">
@@ -10378,19 +10378,19 @@
         <v>0</v>
       </c>
       <c r="B208" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>D_00048</t>
+          <t>D_00057</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>B_00066</t>
+          <t>B_00080</t>
         </is>
       </c>
       <c r="F208" t="n">
@@ -10406,10 +10406,10 @@
         <v>0</v>
       </c>
       <c r="J208" t="n">
-        <v>129.03575</v>
+        <v>129.036339</v>
       </c>
       <c r="K208" t="n">
-        <v>35.155222</v>
+        <v>35.166196</v>
       </c>
       <c r="L208" t="n">
         <v>50</v>
@@ -10426,19 +10426,19 @@
         <v>0</v>
       </c>
       <c r="B209" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>D_00027</t>
+          <t>D_00020</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>B_00038</t>
+          <t>B_00028</t>
         </is>
       </c>
       <c r="F209" t="n">
@@ -10448,25 +10448,25 @@
         <v>460</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
       <c r="J209" t="n">
-        <v>129.033166</v>
+        <v>129.034684</v>
       </c>
       <c r="K209" t="n">
-        <v>35.154793</v>
+        <v>35.166318</v>
       </c>
       <c r="L209" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M209" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N209" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="210">
@@ -10474,23 +10474,23 @@
         <v>0</v>
       </c>
       <c r="B210" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>D_00055</t>
+          <t>D_00007</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>B_00077</t>
+          <t>B_00010</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G210" t="n">
         <v>440</v>
@@ -10502,19 +10502,19 @@
         <v>0</v>
       </c>
       <c r="J210" t="n">
-        <v>129.042749</v>
+        <v>129.025646</v>
       </c>
       <c r="K210" t="n">
-        <v>35.162679</v>
+        <v>35.161635</v>
       </c>
       <c r="L210" t="n">
         <v>30</v>
       </c>
       <c r="M210" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N210" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="211">
@@ -10522,38 +10522,38 @@
         <v>0</v>
       </c>
       <c r="B211" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>D_00051</t>
+          <t>D_00007</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>B_00071</t>
+          <t>B_00009</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G211" t="n">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="H211" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
       <c r="J211" t="n">
-        <v>129.041795</v>
+        <v>129.025646</v>
       </c>
       <c r="K211" t="n">
-        <v>35.162733</v>
+        <v>35.161635</v>
       </c>
       <c r="L211" t="n">
         <v>30</v>
@@ -10570,19 +10570,19 @@
         <v>0</v>
       </c>
       <c r="B212" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>D_00030</t>
+          <t>D_00036</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>B_00042</t>
+          <t>B_00049</t>
         </is>
       </c>
       <c r="F212" t="n">
@@ -10598,19 +10598,19 @@
         <v>0</v>
       </c>
       <c r="J212" t="n">
-        <v>129.038775</v>
+        <v>129.025641</v>
       </c>
       <c r="K212" t="n">
-        <v>35.170402</v>
+        <v>35.15949</v>
       </c>
       <c r="L212" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M212" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N212" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="213">
@@ -10618,19 +10618,19 @@
         <v>0</v>
       </c>
       <c r="B213" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>D_00057</t>
+          <t>D_00047</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>B_00080</t>
+          <t>B_00065</t>
         </is>
       </c>
       <c r="F213" t="n">
@@ -10640,25 +10640,25 @@
         <v>400</v>
       </c>
       <c r="H213" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
       <c r="J213" t="n">
-        <v>129.036339</v>
+        <v>129.02505</v>
       </c>
       <c r="K213" t="n">
-        <v>35.166196</v>
+        <v>35.15442</v>
       </c>
       <c r="L213" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M213" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N213" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="214">
@@ -10666,23 +10666,23 @@
         <v>0</v>
       </c>
       <c r="B214" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>D_00020</t>
+          <t>D_00003</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>B_00028</t>
+          <t>B_00004</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G214" t="n">
         <v>400</v>
@@ -10694,10 +10694,10 @@
         <v>0</v>
       </c>
       <c r="J214" t="n">
-        <v>129.034684</v>
+        <v>129.026275</v>
       </c>
       <c r="K214" t="n">
-        <v>35.166318</v>
+        <v>35.152292</v>
       </c>
       <c r="L214" t="n">
         <v>50</v>
@@ -10718,43 +10718,43 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>D_00007</t>
+          <t>D_00003</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>B_00010</t>
+          <t>B_00003</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G215" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="H215" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
       <c r="J215" t="n">
-        <v>129.025646</v>
+        <v>129.026275</v>
       </c>
       <c r="K215" t="n">
-        <v>35.161635</v>
+        <v>35.152292</v>
       </c>
       <c r="L215" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M215" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N215" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="216">
@@ -10762,47 +10762,47 @@
         <v>0</v>
       </c>
       <c r="B216" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>D_00007</t>
+          <t>D_00004</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>B_00009</t>
+          <t>B_00006</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G216" t="n">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="H216" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
       <c r="J216" t="n">
-        <v>129.025646</v>
+        <v>129.022085</v>
       </c>
       <c r="K216" t="n">
-        <v>35.161635</v>
+        <v>35.150768</v>
       </c>
       <c r="L216" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M216" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N216" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="217">
@@ -10814,43 +10814,43 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>D_00036</t>
+          <t>D_00004</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>B_00049</t>
+          <t>B_00005</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G217" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="H217" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
       <c r="J217" t="n">
-        <v>129.025641</v>
+        <v>129.022085</v>
       </c>
       <c r="K217" t="n">
-        <v>35.15949</v>
+        <v>35.150768</v>
       </c>
       <c r="L217" t="n">
         <v>30</v>
       </c>
       <c r="M217" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N217" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="218">
@@ -10862,34 +10862,34 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>D_00047</t>
+          <t>D_00037</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>B_00065</t>
+          <t>B_00051</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G218" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="H218" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
       <c r="J218" t="n">
-        <v>129.02505</v>
+        <v>129.018029</v>
       </c>
       <c r="K218" t="n">
-        <v>35.15442</v>
+        <v>35.150288</v>
       </c>
       <c r="L218" t="n">
         <v>30</v>
@@ -10906,47 +10906,47 @@
         <v>0</v>
       </c>
       <c r="B219" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>D_00003</t>
+          <t>D_00037</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>B_00004</t>
+          <t>B_00050</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G219" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="H219" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
       <c r="J219" t="n">
-        <v>129.026275</v>
+        <v>129.018029</v>
       </c>
       <c r="K219" t="n">
-        <v>35.152292</v>
+        <v>35.150288</v>
       </c>
       <c r="L219" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M219" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N219" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="220">
@@ -10958,19 +10958,19 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>D_00003</t>
+          <t>D_00032</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>B_00003</t>
+          <t>B_00045</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G220" t="n">
         <v>340</v>
@@ -10982,10 +10982,10 @@
         <v>0</v>
       </c>
       <c r="J220" t="n">
-        <v>129.026275</v>
+        <v>129.018249</v>
       </c>
       <c r="K220" t="n">
-        <v>35.152292</v>
+        <v>35.149394</v>
       </c>
       <c r="L220" t="n">
         <v>50</v>
@@ -11006,43 +11006,43 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>D_00004</t>
+          <t>D_00041</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>B_00006</t>
+          <t>B_00058</t>
         </is>
       </c>
       <c r="F221" t="n">
         <v>28</v>
       </c>
       <c r="G221" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="H221" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
       <c r="J221" t="n">
-        <v>129.022085</v>
+        <v>129.018715</v>
       </c>
       <c r="K221" t="n">
-        <v>35.150768</v>
+        <v>35.148984</v>
       </c>
       <c r="L221" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M221" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N221" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="222">
@@ -11054,22 +11054,22 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>D_00004</t>
+          <t>D_00041</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>B_00005</t>
+          <t>B_00057</t>
         </is>
       </c>
       <c r="F222" t="n">
         <v>29</v>
       </c>
       <c r="G222" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="H222" t="n">
         <v>180</v>
@@ -11078,19 +11078,19 @@
         <v>0</v>
       </c>
       <c r="J222" t="n">
-        <v>129.022085</v>
+        <v>129.018715</v>
       </c>
       <c r="K222" t="n">
-        <v>35.150768</v>
+        <v>35.148984</v>
       </c>
       <c r="L222" t="n">
         <v>30</v>
       </c>
       <c r="M222" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N222" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="223">
@@ -11102,34 +11102,34 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>D_00037</t>
+          <t>D_00038</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>B_00051</t>
+          <t>B_00052</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G223" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="H223" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
       <c r="J223" t="n">
-        <v>129.018029</v>
+        <v>129.016391</v>
       </c>
       <c r="K223" t="n">
-        <v>35.150288</v>
+        <v>35.144749</v>
       </c>
       <c r="L223" t="n">
         <v>30</v>
@@ -11146,47 +11146,47 @@
         <v>0</v>
       </c>
       <c r="B224" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>D_00037</t>
+          <t>D_00058</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>B_00050</t>
+          <t>B_00081</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G224" t="n">
         <v>280</v>
       </c>
       <c r="H224" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
       <c r="J224" t="n">
-        <v>129.018029</v>
+        <v>129.020046</v>
       </c>
       <c r="K224" t="n">
-        <v>35.150288</v>
+        <v>35.144836</v>
       </c>
       <c r="L224" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M224" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N224" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="225">
@@ -11194,47 +11194,47 @@
         <v>0</v>
       </c>
       <c r="B225" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>D_00032</t>
+          <t>D_00024</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>B_00045</t>
+          <t>B_00034</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G225" t="n">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
       <c r="J225" t="n">
-        <v>129.018249</v>
+        <v>129.026056</v>
       </c>
       <c r="K225" t="n">
-        <v>35.149394</v>
+        <v>35.150653</v>
       </c>
       <c r="L225" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M225" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N225" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="226">
@@ -11246,34 +11246,34 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>D_00041</t>
+          <t>D_00024</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>B_00058</t>
+          <t>B_00033</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G226" t="n">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="H226" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
       <c r="J226" t="n">
-        <v>129.018715</v>
+        <v>129.026056</v>
       </c>
       <c r="K226" t="n">
-        <v>35.148984</v>
+        <v>35.150653</v>
       </c>
       <c r="L226" t="n">
         <v>30</v>
@@ -11290,47 +11290,47 @@
         <v>0</v>
       </c>
       <c r="B227" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>D_00041</t>
+          <t>D_00039</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>B_00057</t>
+          <t>B_00054</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G227" t="n">
         <v>240</v>
       </c>
       <c r="H227" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
       <c r="J227" t="n">
-        <v>129.018715</v>
+        <v>129.034762</v>
       </c>
       <c r="K227" t="n">
-        <v>35.148984</v>
+        <v>35.146514</v>
       </c>
       <c r="L227" t="n">
         <v>30</v>
       </c>
       <c r="M227" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N227" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="228">
@@ -11342,43 +11342,43 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>D_00038</t>
+          <t>D_00039</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>B_00052</t>
+          <t>B_00053</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G228" t="n">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="H228" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
       <c r="J228" t="n">
-        <v>129.016391</v>
+        <v>129.034762</v>
       </c>
       <c r="K228" t="n">
-        <v>35.144749</v>
+        <v>35.146514</v>
       </c>
       <c r="L228" t="n">
         <v>30</v>
       </c>
       <c r="M228" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N228" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="229">
@@ -11390,22 +11390,22 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>D_00058</t>
+          <t>D_00033</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>B_00081</t>
+          <t>B_00046</t>
         </is>
       </c>
       <c r="F229" t="n">
         <v>21</v>
       </c>
       <c r="G229" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -11414,19 +11414,19 @@
         <v>0</v>
       </c>
       <c r="J229" t="n">
-        <v>129.020046</v>
+        <v>129.034616</v>
       </c>
       <c r="K229" t="n">
-        <v>35.144836</v>
+        <v>35.147155</v>
       </c>
       <c r="L229" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M229" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N229" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="230">
@@ -11438,43 +11438,43 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>D_00024</t>
+          <t>D_00001</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>B_00034</t>
+          <t>B_00001</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G230" t="n">
         <v>200</v>
       </c>
       <c r="H230" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
       <c r="J230" t="n">
-        <v>129.026056</v>
+        <v>129.033916</v>
       </c>
       <c r="K230" t="n">
-        <v>35.150653</v>
+        <v>35.149045</v>
       </c>
       <c r="L230" t="n">
         <v>30</v>
       </c>
       <c r="M230" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N230" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="231">
@@ -11482,47 +11482,47 @@
         <v>0</v>
       </c>
       <c r="B231" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>D_00024</t>
+          <t>D_00029</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>B_00033</t>
+          <t>B_00041</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G231" t="n">
         <v>200</v>
       </c>
       <c r="H231" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
       <c r="J231" t="n">
-        <v>129.026056</v>
+        <v>129.035871</v>
       </c>
       <c r="K231" t="n">
-        <v>35.150653</v>
+        <v>35.147433</v>
       </c>
       <c r="L231" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M231" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N231" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="232">
@@ -11530,19 +11530,19 @@
         <v>0</v>
       </c>
       <c r="B232" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>D_00039</t>
+          <t>D_00040</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>B_00054</t>
+          <t>B_00056</t>
         </is>
       </c>
       <c r="F232" t="n">
@@ -11552,25 +11552,25 @@
         <v>160</v>
       </c>
       <c r="H232" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
       <c r="J232" t="n">
-        <v>129.034762</v>
+        <v>129.036664</v>
       </c>
       <c r="K232" t="n">
-        <v>35.146514</v>
+        <v>35.1494</v>
       </c>
       <c r="L232" t="n">
         <v>30</v>
       </c>
       <c r="M232" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N232" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="233">
@@ -11578,19 +11578,19 @@
         <v>0</v>
       </c>
       <c r="B233" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>D_00039</t>
+          <t>D_00040</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>B_00053</t>
+          <t>B_00055</t>
         </is>
       </c>
       <c r="F233" t="n">
@@ -11600,16 +11600,16 @@
         <v>200</v>
       </c>
       <c r="H233" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
       <c r="J233" t="n">
-        <v>129.034762</v>
+        <v>129.036664</v>
       </c>
       <c r="K233" t="n">
-        <v>35.146514</v>
+        <v>35.1494</v>
       </c>
       <c r="L233" t="n">
         <v>30</v>
@@ -11626,26 +11626,26 @@
         <v>0</v>
       </c>
       <c r="B234" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>D_00033</t>
+          <t>D_00035</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>B_00046</t>
+          <t>B_00048</t>
         </is>
       </c>
       <c r="F234" t="n">
         <v>16</v>
       </c>
       <c r="G234" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="H234" t="n">
         <v>100</v>
@@ -11654,19 +11654,19 @@
         <v>0</v>
       </c>
       <c r="J234" t="n">
-        <v>129.034616</v>
+        <v>129.040025</v>
       </c>
       <c r="K234" t="n">
-        <v>35.147155</v>
+        <v>35.152192</v>
       </c>
       <c r="L234" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M234" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N234" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="235">
@@ -11674,47 +11674,47 @@
         <v>0</v>
       </c>
       <c r="B235" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>D_00001</t>
+          <t>D_00010</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>B_00001</t>
+          <t>B_00015</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G235" t="n">
         <v>160</v>
       </c>
       <c r="H235" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
       <c r="J235" t="n">
-        <v>129.033916</v>
+        <v>129.049007</v>
       </c>
       <c r="K235" t="n">
-        <v>35.149045</v>
+        <v>35.15335</v>
       </c>
       <c r="L235" t="n">
         <v>30</v>
       </c>
       <c r="M235" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N235" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="236">
@@ -11726,43 +11726,43 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>D_00029</t>
+          <t>D_00010</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>B_00041</t>
+          <t>B_00014</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G236" t="n">
         <v>160</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
       <c r="J236" t="n">
-        <v>129.035871</v>
+        <v>129.049007</v>
       </c>
       <c r="K236" t="n">
-        <v>35.147433</v>
+        <v>35.15335</v>
       </c>
       <c r="L236" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M236" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N236" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="237">
@@ -11774,43 +11774,43 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>D_00040</t>
+          <t>D_00034</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>B_00056</t>
+          <t>B_00047</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G237" t="n">
         <v>120</v>
       </c>
       <c r="H237" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
       <c r="J237" t="n">
-        <v>129.036664</v>
+        <v>129.050019</v>
       </c>
       <c r="K237" t="n">
-        <v>35.1494</v>
+        <v>35.148393</v>
       </c>
       <c r="L237" t="n">
         <v>30</v>
       </c>
       <c r="M237" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N237" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="238">
@@ -11818,47 +11818,47 @@
         <v>0</v>
       </c>
       <c r="B238" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>D_00040</t>
+          <t>D_00054</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>B_00055</t>
+          <t>B_00076</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G238" t="n">
         <v>120</v>
       </c>
       <c r="H238" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
       <c r="J238" t="n">
-        <v>129.036664</v>
+        <v>129.054156</v>
       </c>
       <c r="K238" t="n">
-        <v>35.1494</v>
+        <v>35.147536</v>
       </c>
       <c r="L238" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M238" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N238" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="239">
@@ -11870,43 +11870,43 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>D_00035</t>
+          <t>D_00054</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>B_00048</t>
+          <t>B_00075</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G239" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H239" t="n">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
       <c r="J239" t="n">
-        <v>129.040025</v>
+        <v>129.054156</v>
       </c>
       <c r="K239" t="n">
-        <v>35.152192</v>
+        <v>35.147536</v>
       </c>
       <c r="L239" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M239" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N239" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="240">
@@ -11918,43 +11918,43 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>D_00010</t>
+          <t>D_00017</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>B_00015</t>
+          <t>B_00025</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G240" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H240" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
       <c r="J240" t="n">
-        <v>129.049007</v>
+        <v>129.057319</v>
       </c>
       <c r="K240" t="n">
-        <v>35.15335</v>
+        <v>35.151989</v>
       </c>
       <c r="L240" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M240" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N240" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="241">
@@ -11962,23 +11962,23 @@
         <v>0</v>
       </c>
       <c r="B241" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>D_00010</t>
+          <t>D_00011</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>B_00014</t>
+          <t>B_00016</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G241" t="n">
         <v>100</v>
@@ -11990,19 +11990,19 @@
         <v>0</v>
       </c>
       <c r="J241" t="n">
-        <v>129.049007</v>
+        <v>129.061119</v>
       </c>
       <c r="K241" t="n">
-        <v>35.15335</v>
+        <v>35.15978</v>
       </c>
       <c r="L241" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M241" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N241" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="242">
@@ -12010,23 +12010,23 @@
         <v>0</v>
       </c>
       <c r="B242" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>D_00034</t>
+          <t>D_00025</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>B_00047</t>
+          <t>B_00036</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G242" t="n">
         <v>40</v>
@@ -12038,19 +12038,19 @@
         <v>0</v>
       </c>
       <c r="J242" t="n">
-        <v>129.050019</v>
+        <v>129.066255</v>
       </c>
       <c r="K242" t="n">
-        <v>35.148393</v>
+        <v>35.153821</v>
       </c>
       <c r="L242" t="n">
         <v>30</v>
       </c>
       <c r="M242" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N242" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="243">
@@ -12062,19 +12062,19 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>D_00054</t>
+          <t>D_00025</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>B_00076</t>
+          <t>B_00035</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G243" t="n">
         <v>60</v>
@@ -12086,10 +12086,10 @@
         <v>0</v>
       </c>
       <c r="J243" t="n">
-        <v>129.054156</v>
+        <v>129.066255</v>
       </c>
       <c r="K243" t="n">
-        <v>35.147536</v>
+        <v>35.153821</v>
       </c>
       <c r="L243" t="n">
         <v>50</v>
@@ -12106,47 +12106,47 @@
         <v>0</v>
       </c>
       <c r="B244" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>D_00054</t>
+          <t>D_00056</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>B_00075</t>
+          <t>B_00079</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G244" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H244" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
       <c r="J244" t="n">
-        <v>129.054156</v>
+        <v>129.068485</v>
       </c>
       <c r="K244" t="n">
-        <v>35.147536</v>
+        <v>35.159877</v>
       </c>
       <c r="L244" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M244" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N244" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="245">
@@ -12158,43 +12158,43 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>D_00017</t>
+          <t>D_00056</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>B_00025</t>
+          <t>B_00078</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G245" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H245" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
       <c r="J245" t="n">
-        <v>129.057319</v>
+        <v>129.068485</v>
       </c>
       <c r="K245" t="n">
-        <v>35.151989</v>
+        <v>35.159877</v>
       </c>
       <c r="L245" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M245" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N245" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="246">
@@ -12206,15 +12206,15 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>D_00011</t>
+          <t>D_00002</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>B_00016</t>
+          <t>B_00002</t>
         </is>
       </c>
       <c r="F246" t="n">
@@ -12230,10 +12230,10 @@
         <v>0</v>
       </c>
       <c r="J246" t="n">
-        <v>129.061119</v>
+        <v>129.071372</v>
       </c>
       <c r="K246" t="n">
-        <v>35.15978</v>
+        <v>35.159031</v>
       </c>
       <c r="L246" t="n">
         <v>50</v>
@@ -17782,19 +17782,19 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>D_00264</t>
+          <t>D_00278</t>
         </is>
       </c>
       <c r="D363" t="n">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>B_00384</t>
+          <t>B_00403</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G363" t="n">
         <v>200</v>
@@ -17806,10 +17806,10 @@
         <v>40</v>
       </c>
       <c r="J363" t="n">
-        <v>129.092538</v>
+        <v>129.113679</v>
       </c>
       <c r="K363" t="n">
-        <v>35.263502</v>
+        <v>35.292928</v>
       </c>
       <c r="L363" t="n">
         <v>30</v>
@@ -17826,47 +17826,47 @@
         <v>1</v>
       </c>
       <c r="B364" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>D_00273</t>
+          <t>D_00278</t>
         </is>
       </c>
       <c r="D364" t="n">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>B_00395</t>
+          <t>B_00402</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G364" t="n">
-        <v>440</v>
+        <v>360</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I364" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J364" t="n">
-        <v>129.089794</v>
+        <v>129.113679</v>
       </c>
       <c r="K364" t="n">
-        <v>35.270323</v>
+        <v>35.292928</v>
       </c>
       <c r="L364" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M364" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N364" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="365">
@@ -17874,26 +17874,26 @@
         <v>1</v>
       </c>
       <c r="B365" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>D_00280</t>
+          <t>D_00259</t>
         </is>
       </c>
       <c r="D365" t="n">
-        <v>407</v>
+        <v>377</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>B_00407</t>
+          <t>B_00377</t>
         </is>
       </c>
       <c r="F365" t="n">
         <v>76</v>
       </c>
       <c r="G365" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="H365" t="n">
         <v>100</v>
@@ -17902,10 +17902,10 @@
         <v>40</v>
       </c>
       <c r="J365" t="n">
-        <v>129.087949</v>
+        <v>129.090841</v>
       </c>
       <c r="K365" t="n">
-        <v>35.268798</v>
+        <v>35.282824</v>
       </c>
       <c r="L365" t="n">
         <v>50</v>
@@ -17922,47 +17922,47 @@
         <v>1</v>
       </c>
       <c r="B366" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>D_00280</t>
+          <t>D_00259</t>
         </is>
       </c>
       <c r="D366" t="n">
-        <v>406</v>
+        <v>376</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>B_00406</t>
+          <t>B_00376</t>
         </is>
       </c>
       <c r="F366" t="n">
         <v>77</v>
       </c>
       <c r="G366" t="n">
-        <v>100</v>
+        <v>440</v>
       </c>
       <c r="H366" t="n">
         <v>0</v>
       </c>
       <c r="I366" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J366" t="n">
-        <v>129.087949</v>
+        <v>129.090841</v>
       </c>
       <c r="K366" t="n">
-        <v>35.268798</v>
+        <v>35.282824</v>
       </c>
       <c r="L366" t="n">
         <v>30</v>
       </c>
       <c r="M366" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N366" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="367">
@@ -17970,38 +17970,38 @@
         <v>1</v>
       </c>
       <c r="B367" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>D_00262</t>
+          <t>D_00258</t>
         </is>
       </c>
       <c r="D367" t="n">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>B_00382</t>
+          <t>B_00375</t>
         </is>
       </c>
       <c r="F367" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G367" t="n">
         <v>300</v>
       </c>
       <c r="H367" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I367" t="n">
         <v>40</v>
       </c>
       <c r="J367" t="n">
-        <v>129.077189</v>
+        <v>129.08953</v>
       </c>
       <c r="K367" t="n">
-        <v>35.278728</v>
+        <v>35.276824</v>
       </c>
       <c r="L367" t="n">
         <v>50</v>
@@ -18018,7 +18018,7 @@
         <v>1</v>
       </c>
       <c r="B368" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
@@ -18026,24 +18026,24 @@
         </is>
       </c>
       <c r="D368" t="n">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>B_00375</t>
+          <t>B_00374</t>
         </is>
       </c>
       <c r="F368" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G368" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H368" t="n">
         <v>0</v>
       </c>
       <c r="I368" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J368" t="n">
         <v>129.08953</v>
@@ -18052,13 +18052,13 @@
         <v>35.276824</v>
       </c>
       <c r="L368" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M368" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N368" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="369">
@@ -18066,47 +18066,47 @@
         <v>1</v>
       </c>
       <c r="B369" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>D_00258</t>
+          <t>D_00262</t>
         </is>
       </c>
       <c r="D369" t="n">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>B_00374</t>
+          <t>B_00382</t>
         </is>
       </c>
       <c r="F369" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G369" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="H369" t="n">
         <v>0</v>
       </c>
       <c r="I369" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J369" t="n">
-        <v>129.08953</v>
+        <v>129.077189</v>
       </c>
       <c r="K369" t="n">
-        <v>35.276824</v>
+        <v>35.278728</v>
       </c>
       <c r="L369" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M369" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N369" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="370">
@@ -18114,38 +18114,38 @@
         <v>1</v>
       </c>
       <c r="B370" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>D_00259</t>
+          <t>D_00280</t>
         </is>
       </c>
       <c r="D370" t="n">
-        <v>377</v>
+        <v>407</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>B_00377</t>
+          <t>B_00407</t>
         </is>
       </c>
       <c r="F370" t="n">
         <v>71</v>
       </c>
       <c r="G370" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="I370" t="n">
         <v>40</v>
       </c>
       <c r="J370" t="n">
-        <v>129.090841</v>
+        <v>129.087949</v>
       </c>
       <c r="K370" t="n">
-        <v>35.282824</v>
+        <v>35.268798</v>
       </c>
       <c r="L370" t="n">
         <v>50</v>
@@ -18162,47 +18162,47 @@
         <v>1</v>
       </c>
       <c r="B371" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>D_00259</t>
+          <t>D_00280</t>
         </is>
       </c>
       <c r="D371" t="n">
-        <v>376</v>
+        <v>406</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>B_00376</t>
+          <t>B_00406</t>
         </is>
       </c>
       <c r="F371" t="n">
         <v>72</v>
       </c>
       <c r="G371" t="n">
-        <v>360</v>
+        <v>100</v>
       </c>
       <c r="H371" t="n">
         <v>0</v>
       </c>
       <c r="I371" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J371" t="n">
-        <v>129.090841</v>
+        <v>129.087949</v>
       </c>
       <c r="K371" t="n">
-        <v>35.282824</v>
+        <v>35.268798</v>
       </c>
       <c r="L371" t="n">
         <v>30</v>
       </c>
       <c r="M371" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N371" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="372">
@@ -18210,47 +18210,47 @@
         <v>1</v>
       </c>
       <c r="B372" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>D_00278</t>
+          <t>D_00273</t>
         </is>
       </c>
       <c r="D372" t="n">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>B_00403</t>
+          <t>B_00395</t>
         </is>
       </c>
       <c r="F372" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G372" t="n">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="H372" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I372" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J372" t="n">
-        <v>129.113679</v>
+        <v>129.089794</v>
       </c>
       <c r="K372" t="n">
-        <v>35.292928</v>
+        <v>35.270323</v>
       </c>
       <c r="L372" t="n">
         <v>30</v>
       </c>
       <c r="M372" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N372" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="373">
@@ -18262,43 +18262,43 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>D_00278</t>
+          <t>D_00266</t>
         </is>
       </c>
       <c r="D373" t="n">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>B_00402</t>
+          <t>B_00386</t>
         </is>
       </c>
       <c r="F373" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G373" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="H373" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="I373" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J373" t="n">
-        <v>129.113679</v>
+        <v>129.091272</v>
       </c>
       <c r="K373" t="n">
-        <v>35.292928</v>
+        <v>35.265758</v>
       </c>
       <c r="L373" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M373" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N373" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="374">
@@ -18310,43 +18310,43 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>D_00266</t>
+          <t>D_00264</t>
         </is>
       </c>
       <c r="D374" t="n">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>B_00386</t>
+          <t>B_00384</t>
         </is>
       </c>
       <c r="F374" t="n">
         <v>68</v>
       </c>
       <c r="G374" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="H374" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I374" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J374" t="n">
-        <v>129.091272</v>
+        <v>129.092538</v>
       </c>
       <c r="K374" t="n">
-        <v>35.265758</v>
+        <v>35.263502</v>
       </c>
       <c r="L374" t="n">
         <v>30</v>
       </c>
       <c r="M374" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N374" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="375">
